--- a/adidas1.xlsx
+++ b/adidas1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,9 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">wefe</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsf</t>
   </si>
 </sst>
 </file>
@@ -130,31 +145,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
